--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzLabTest</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzLabTest</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -617,7 +617,7 @@
     <t>A code or name that describes this diagnostic report.</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzTestCodeVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzTestCodeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -639,7 +639,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient)
 </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzEncounter)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzEncounter)
 </t>
   </si>
   <si>
@@ -773,7 +773,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPractitioner)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPractitioner)
 </t>
   </si>
   <si>
@@ -827,7 +827,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzLabSpecimen)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzLabSpecimen)
 </t>
   </si>
   <si>
@@ -1409,7 +1409,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.5390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.26171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabTest.xlsx
+++ b/StructureDefinition-SzLabTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
